--- a/Code/Results/Cases/Case_1_113/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_113/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4496522748062404</v>
+        <v>0.1661084259327765</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01585144297020946</v>
+        <v>0.005612785346094995</v>
       </c>
       <c r="E2">
-        <v>0.06742344963189595</v>
+        <v>0.1074619746187437</v>
       </c>
       <c r="F2">
-        <v>0.707506756273844</v>
+        <v>0.3746353073733673</v>
       </c>
       <c r="G2">
-        <v>0.6463392041683846</v>
+        <v>0.2608699164456141</v>
       </c>
       <c r="H2">
-        <v>0.3351408781302467</v>
+        <v>0.3328812873599105</v>
       </c>
       <c r="I2">
-        <v>0.2820763287670864</v>
+        <v>0.3463768926081165</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.692022278107942</v>
+        <v>0.5398403867358468</v>
       </c>
       <c r="N2">
-        <v>1.782072550174746</v>
+        <v>1.251098144649433</v>
       </c>
       <c r="O2">
-        <v>2.026120034363629</v>
+        <v>1.103858612678096</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3918404842880392</v>
+        <v>0.1472636846431499</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01378479968857604</v>
+        <v>0.004994341764724908</v>
       </c>
       <c r="E3">
-        <v>0.06304149797442093</v>
+        <v>0.1092998160422169</v>
       </c>
       <c r="F3">
-        <v>0.6164415938305012</v>
+        <v>0.3525363198711773</v>
       </c>
       <c r="G3">
-        <v>0.5594703200136166</v>
+        <v>0.2385975703545427</v>
       </c>
       <c r="H3">
-        <v>0.2989967285998461</v>
+        <v>0.3259847953969484</v>
       </c>
       <c r="I3">
-        <v>0.2751350877873335</v>
+        <v>0.3463474110070166</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.470878930491381</v>
+        <v>0.4722893597765676</v>
       </c>
       <c r="N3">
-        <v>1.650876346434558</v>
+        <v>1.210295828351775</v>
       </c>
       <c r="O3">
-        <v>1.765934715668124</v>
+        <v>1.04189678590032</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3562759537733626</v>
+        <v>0.1356685332018657</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01251707433251781</v>
+        <v>0.004615247115150822</v>
       </c>
       <c r="E4">
-        <v>0.0609072686222305</v>
+        <v>0.1106025869431377</v>
       </c>
       <c r="F4">
-        <v>0.5613883896313681</v>
+        <v>0.3392116276521406</v>
       </c>
       <c r="G4">
-        <v>0.5069116790819237</v>
+        <v>0.2250785283969776</v>
       </c>
       <c r="H4">
-        <v>0.277296138856002</v>
+        <v>0.3219546496304275</v>
       </c>
       <c r="I4">
-        <v>0.2712606791591554</v>
+        <v>0.346545782202007</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.335403580608642</v>
+        <v>0.4307244345333032</v>
       </c>
       <c r="N4">
-        <v>1.571088722422687</v>
+        <v>1.185635250531561</v>
       </c>
       <c r="O4">
-        <v>1.608850446561746</v>
+        <v>1.004599322642918</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3417647276877744</v>
+        <v>0.1309377210038747</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01200066808700484</v>
+        <v>0.004460933676792678</v>
       </c>
       <c r="E5">
-        <v>0.06016627064965618</v>
+        <v>0.1111769599516208</v>
       </c>
       <c r="F5">
-        <v>0.5391474486669026</v>
+        <v>0.3338429597921007</v>
       </c>
       <c r="G5">
-        <v>0.4856665681689805</v>
+        <v>0.2196084561509934</v>
       </c>
       <c r="H5">
-        <v>0.2685662381246487</v>
+        <v>0.3203636907477687</v>
       </c>
       <c r="I5">
-        <v>0.2697772101182423</v>
+        <v>0.3466812631422691</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.280249505230969</v>
+        <v>0.4137649062256656</v>
       </c>
       <c r="N5">
-        <v>1.538761285335212</v>
+        <v>1.175686032843274</v>
       </c>
       <c r="O5">
-        <v>1.54543822689277</v>
+        <v>0.9895876508836636</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3393540024975721</v>
+        <v>0.1301518424028387</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01191492862301757</v>
+        <v>0.004435320703166212</v>
       </c>
       <c r="E6">
-        <v>0.06005068869816199</v>
+        <v>0.1112749501050736</v>
       </c>
       <c r="F6">
-        <v>0.5354654115300761</v>
+        <v>0.3329551917873985</v>
       </c>
       <c r="G6">
-        <v>0.482148633307645</v>
+        <v>0.2187025059342744</v>
       </c>
       <c r="H6">
-        <v>0.2671231911085385</v>
+        <v>0.3201026145344628</v>
       </c>
       <c r="I6">
-        <v>0.2695365836395247</v>
+        <v>0.3467070661298024</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.271093755858871</v>
+        <v>0.4109475133614922</v>
       </c>
       <c r="N6">
-        <v>1.533404439700718</v>
+        <v>1.174040068323421</v>
       </c>
       <c r="O6">
-        <v>1.534942980060606</v>
+        <v>0.9871062726617197</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3560803264352188</v>
+        <v>0.1356047542801946</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01251010920690021</v>
+        <v>0.00461316528325284</v>
       </c>
       <c r="E7">
-        <v>0.06089676837079239</v>
+        <v>0.1106101575437499</v>
       </c>
       <c r="F7">
-        <v>0.5610876855775757</v>
+        <v>0.3391389761076908</v>
       </c>
       <c r="G7">
-        <v>0.5066244891853842</v>
+        <v>0.2250045993183534</v>
       </c>
       <c r="H7">
-        <v>0.2771779591502224</v>
+        <v>0.3219329854854607</v>
       </c>
       <c r="I7">
-        <v>0.2712402890278796</v>
+        <v>0.346547387818525</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.334659568559985</v>
+        <v>0.4304957984247295</v>
       </c>
       <c r="N7">
-        <v>1.570651995416767</v>
+        <v>1.18550066427126</v>
       </c>
       <c r="O7">
-        <v>1.607992904620716</v>
+        <v>1.004396112196787</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4297319987939403</v>
+        <v>0.1596160835493521</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01513855212131077</v>
+        <v>0.00539942163900875</v>
       </c>
       <c r="E8">
-        <v>0.06579015695969659</v>
+        <v>0.1080592679174188</v>
       </c>
       <c r="F8">
-        <v>0.6759145609823776</v>
+        <v>0.3669648016594351</v>
       </c>
       <c r="G8">
-        <v>0.6162108232392995</v>
+        <v>0.2531578219523141</v>
       </c>
       <c r="H8">
-        <v>0.3225697467801467</v>
+        <v>0.3304609523480053</v>
       </c>
       <c r="I8">
-        <v>0.2796012770483429</v>
+        <v>0.3463219221861387</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.615693101603185</v>
+        <v>0.5165675376332928</v>
       </c>
       <c r="N8">
-        <v>1.736672832206636</v>
+        <v>1.236949010496573</v>
       </c>
       <c r="O8">
-        <v>1.935809996316976</v>
+        <v>1.082338692579725</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5736974524272966</v>
+        <v>0.2064914003842091</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02030753973307498</v>
+        <v>0.006945842567709803</v>
       </c>
       <c r="E9">
-        <v>0.08033971792272609</v>
+        <v>0.1044560952958236</v>
       </c>
       <c r="F9">
-        <v>0.9090315142465784</v>
+        <v>0.4234784477749542</v>
       </c>
       <c r="G9">
-        <v>0.8384067010868677</v>
+        <v>0.3096202400279822</v>
       </c>
       <c r="H9">
-        <v>0.4159952888668386</v>
+        <v>0.3488078672512955</v>
       </c>
       <c r="I9">
-        <v>0.2991715928296763</v>
+        <v>0.3475887679484373</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.170444719379148</v>
+        <v>0.6846295097790005</v>
       </c>
       <c r="N9">
-        <v>2.068657073110444</v>
+        <v>1.340889488402212</v>
       </c>
       <c r="O9">
-        <v>2.603275915526979</v>
+        <v>1.241148948972636</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6793062796290883</v>
+        <v>0.2407823869148444</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02412204125593576</v>
+        <v>0.008084302042611569</v>
       </c>
       <c r="E10">
-        <v>0.09485882607287266</v>
+        <v>0.1026837273292429</v>
       </c>
       <c r="F10">
-        <v>1.086810337382303</v>
+        <v>0.4662044215769754</v>
       </c>
       <c r="G10">
-        <v>1.007779252539123</v>
+        <v>0.3518914261744612</v>
       </c>
       <c r="H10">
-        <v>0.488089355366256</v>
+        <v>0.3632823492797286</v>
       </c>
       <c r="I10">
-        <v>0.3156326514925922</v>
+        <v>0.3495505719500969</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.582108517258433</v>
+        <v>0.8076433401380854</v>
       </c>
       <c r="N10">
-        <v>2.317002378987752</v>
+        <v>1.419040578161599</v>
       </c>
       <c r="O10">
-        <v>3.113826520025441</v>
+        <v>1.361525135193943</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7273450566399333</v>
+        <v>0.2563460674260511</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02586294463618088</v>
+        <v>0.008602620141545003</v>
       </c>
       <c r="E11">
-        <v>0.102493356735355</v>
+        <v>0.1020721353747511</v>
       </c>
       <c r="F11">
-        <v>1.169503186659313</v>
+        <v>0.4859075045388863</v>
       </c>
       <c r="G11">
-        <v>1.086568075041129</v>
+        <v>0.3712981816973979</v>
       </c>
       <c r="H11">
-        <v>0.5218225030962458</v>
+        <v>0.3700844682704343</v>
       </c>
       <c r="I11">
-        <v>0.3236081807426388</v>
+        <v>0.3506647198888473</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.770735380135235</v>
+        <v>0.8635019757502107</v>
       </c>
       <c r="N11">
-        <v>2.431073339599521</v>
+        <v>1.454966479155587</v>
       </c>
       <c r="O11">
-        <v>3.351718854249953</v>
+        <v>1.417104467211857</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7455380940923249</v>
+        <v>0.2622341251766898</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02652316111300479</v>
+        <v>0.008798944433408451</v>
       </c>
       <c r="E12">
-        <v>0.1055506528729069</v>
+        <v>0.1018689220452096</v>
       </c>
       <c r="F12">
-        <v>1.201115054359462</v>
+        <v>0.4934071510788414</v>
       </c>
       <c r="G12">
-        <v>1.116690480597995</v>
+        <v>0.3786728547891585</v>
       </c>
       <c r="H12">
-        <v>0.5347479686619465</v>
+        <v>0.3726916047249631</v>
       </c>
       <c r="I12">
-        <v>0.3267014104973995</v>
+        <v>0.3511183062409131</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.842400935024017</v>
+        <v>0.8846391120588493</v>
       </c>
       <c r="N12">
-        <v>2.47443797535513</v>
+        <v>1.468623137977346</v>
       </c>
       <c r="O12">
-        <v>3.442726970528156</v>
+        <v>1.438269610491318</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7416197801570661</v>
+        <v>0.2609662818065601</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02638092567336514</v>
+        <v>0.008756660535020444</v>
       </c>
       <c r="E13">
-        <v>0.1048845071353242</v>
+        <v>0.1019114190903103</v>
       </c>
       <c r="F13">
-        <v>1.194293016817554</v>
+        <v>0.4917902526312048</v>
       </c>
       <c r="G13">
-        <v>1.110189711263743</v>
+        <v>0.3770834375360437</v>
       </c>
       <c r="H13">
-        <v>0.5319572211861896</v>
+        <v>0.3721287177191073</v>
       </c>
       <c r="I13">
-        <v>0.3260319287157785</v>
+        <v>0.3510192123658271</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.826955249335512</v>
+        <v>0.8800875454198405</v>
       </c>
       <c r="N13">
-        <v>2.465090955174389</v>
+        <v>1.465679630869687</v>
       </c>
       <c r="O13">
-        <v>3.423083779895762</v>
+        <v>1.433706040295874</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7288417592013445</v>
+        <v>0.2568305958083954</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02591724055875488</v>
+        <v>0.008618770961767552</v>
       </c>
       <c r="E14">
-        <v>0.1027414399657545</v>
+        <v>0.10205484580883</v>
       </c>
       <c r="F14">
-        <v>1.172097726303164</v>
+        <v>0.486523732200169</v>
       </c>
       <c r="G14">
-        <v>1.089040295390305</v>
+        <v>0.3719043828823203</v>
       </c>
       <c r="H14">
-        <v>0.5228827528205784</v>
+        <v>0.3702983310493551</v>
       </c>
       <c r="I14">
-        <v>0.3238611803936209</v>
+        <v>0.350701402878812</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.776626354647291</v>
+        <v>0.8652412521942097</v>
       </c>
       <c r="N14">
-        <v>2.434637534518316</v>
+        <v>1.456088981442775</v>
       </c>
       <c r="O14">
-        <v>3.359186961080809</v>
+        <v>1.418843358821618</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7210151563983516</v>
+        <v>0.2542966293602547</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02563335185926263</v>
+        <v>0.008534315545453808</v>
       </c>
       <c r="E15">
-        <v>0.1014509704108519</v>
+        <v>0.1021464067595801</v>
       </c>
       <c r="F15">
-        <v>1.158542386684886</v>
+        <v>0.4833028567377369</v>
       </c>
       <c r="G15">
-        <v>1.076124153270683</v>
+        <v>0.3687354239147567</v>
       </c>
       <c r="H15">
-        <v>0.5173446226065721</v>
+        <v>0.3691812462652564</v>
       </c>
       <c r="I15">
-        <v>0.3225411421649369</v>
+        <v>0.3505108555245258</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.745830566888642</v>
+        <v>0.8561454506516952</v>
       </c>
       <c r="N15">
-        <v>2.416006201109298</v>
+        <v>1.450221196524694</v>
       </c>
       <c r="O15">
-        <v>3.320172075717721</v>
+        <v>1.409754981530398</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6761669566218984</v>
+        <v>0.2397645099099179</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02400839646790232</v>
+        <v>0.008050436224955604</v>
       </c>
       <c r="E16">
-        <v>0.09438213000891338</v>
+        <v>0.1027276468475939</v>
       </c>
       <c r="F16">
-        <v>1.081445814366205</v>
+        <v>0.4649221605921383</v>
       </c>
       <c r="G16">
-        <v>1.002668290562866</v>
+        <v>0.3506267397123963</v>
       </c>
       <c r="H16">
-        <v>0.4859050677996208</v>
+        <v>0.3628421961578994</v>
       </c>
       <c r="I16">
-        <v>0.3151214898625554</v>
+        <v>0.3494822041198944</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.569812087155896</v>
+        <v>0.8039907468769769</v>
       </c>
       <c r="N16">
-        <v>2.30957054547045</v>
+        <v>1.416700139513921</v>
       </c>
       <c r="O16">
-        <v>3.098402584011268</v>
+        <v>1.357909438847571</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6486547634149247</v>
+        <v>0.2308401070648642</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02301309957439202</v>
+        <v>0.007753692137388413</v>
       </c>
       <c r="E17">
-        <v>0.09032179575323696</v>
+        <v>0.1031343551526405</v>
       </c>
       <c r="F17">
-        <v>1.034640563815756</v>
+        <v>0.4537146441983424</v>
       </c>
       <c r="G17">
-        <v>0.9580762788162076</v>
+        <v>0.3395632573981402</v>
       </c>
       <c r="H17">
-        <v>0.4668693892065789</v>
+        <v>0.3590091495388776</v>
       </c>
       <c r="I17">
-        <v>0.3106966614011597</v>
+        <v>0.3489078035303805</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.46220659622405</v>
+        <v>0.7719690954080534</v>
       </c>
       <c r="N17">
-        <v>2.244564088206914</v>
+        <v>1.3962308782489</v>
       </c>
       <c r="O17">
-        <v>2.963875798492353</v>
+        <v>1.326314224011327</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6328300292477707</v>
+        <v>0.2257037168302531</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02244115427230042</v>
+        <v>0.007583053770687798</v>
       </c>
       <c r="E18">
-        <v>0.08808213838699785</v>
+        <v>0.1033865825994837</v>
       </c>
       <c r="F18">
-        <v>1.007888429884048</v>
+        <v>0.4472934830934321</v>
       </c>
       <c r="G18">
-        <v>0.9325895848679551</v>
+        <v>0.333216516122846</v>
       </c>
       <c r="H18">
-        <v>0.45600770370433</v>
+        <v>0.3568249626434294</v>
       </c>
       <c r="I18">
-        <v>0.3081972955195234</v>
+        <v>0.3485983040424045</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.400439974007099</v>
+        <v>0.7535416317556383</v>
       </c>
       <c r="N18">
-        <v>2.20727670147528</v>
+        <v>1.384492850305435</v>
       </c>
       <c r="O18">
-        <v>2.887023170105579</v>
+        <v>1.3082186011749</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6274719034744578</v>
+        <v>0.2239640692837384</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02224758864087661</v>
+        <v>0.007525285984804952</v>
       </c>
       <c r="E19">
-        <v>0.0873397443193511</v>
+        <v>0.1034751135740812</v>
       </c>
       <c r="F19">
-        <v>0.9988585925404863</v>
+        <v>0.4451236957152673</v>
       </c>
       <c r="G19">
-        <v>0.9239868948665446</v>
+        <v>0.3310704759802121</v>
       </c>
       <c r="H19">
-        <v>0.4523446033055052</v>
+        <v>0.3560889510529393</v>
       </c>
       <c r="I19">
-        <v>0.307358810087436</v>
+        <v>0.3484971051891819</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.379547170482567</v>
+        <v>0.7473008093512874</v>
       </c>
       <c r="N19">
-        <v>2.194669146284639</v>
+        <v>1.380524674956973</v>
       </c>
       <c r="O19">
-        <v>2.861088852503656</v>
+        <v>1.30210495948748</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6515835139988724</v>
+        <v>0.2317904709482264</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02311899537424367</v>
+        <v>0.007785276904343164</v>
       </c>
       <c r="E20">
-        <v>0.09074399001533706</v>
+        <v>0.1030891635963407</v>
       </c>
       <c r="F20">
-        <v>1.039605318903625</v>
+        <v>0.4549051040104644</v>
       </c>
       <c r="G20">
-        <v>0.9628062102325714</v>
+        <v>0.3407392557370343</v>
       </c>
       <c r="H20">
-        <v>0.4688866353527743</v>
+        <v>0.3594150640562361</v>
       </c>
       <c r="I20">
-        <v>0.3111629432678384</v>
+        <v>0.3489667898463011</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.47364813974518</v>
+        <v>0.7753788393913794</v>
       </c>
       <c r="N20">
-        <v>2.251473442771157</v>
+        <v>1.398406218859037</v>
       </c>
       <c r="O20">
-        <v>2.978141427958093</v>
+        <v>1.32966960372076</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7325949060526398</v>
+        <v>0.2580455019559906</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02605340834156067</v>
+        <v>0.008659271259254808</v>
       </c>
       <c r="E21">
-        <v>0.1033662450615225</v>
+        <v>0.1020119444744836</v>
       </c>
       <c r="F21">
-        <v>1.17860863373042</v>
+        <v>0.4880695904105181</v>
       </c>
       <c r="G21">
-        <v>1.095244301431663</v>
+        <v>0.3734248957898103</v>
       </c>
       <c r="H21">
-        <v>0.5255438935451053</v>
+        <v>0.3708351096815505</v>
       </c>
       <c r="I21">
-        <v>0.3244967739414903</v>
+        <v>0.3507938929506693</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.791402399119221</v>
+        <v>0.869602390414471</v>
       </c>
       <c r="N21">
-        <v>2.443577781930514</v>
+        <v>1.458904580659038</v>
       </c>
       <c r="O21">
-        <v>3.377928999541894</v>
+        <v>1.423205669011054</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7855521819983267</v>
+        <v>0.2751719974716309</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02797697900415841</v>
+        <v>0.009230753626781052</v>
       </c>
       <c r="E22">
-        <v>0.1125944186631038</v>
+        <v>0.1014735408759151</v>
       </c>
       <c r="F22">
-        <v>1.27121063124757</v>
+        <v>0.5099690716487117</v>
       </c>
       <c r="G22">
-        <v>1.183491148202961</v>
+        <v>0.394937091137507</v>
       </c>
       <c r="H22">
-        <v>0.5634642915744337</v>
+        <v>0.3784813502030033</v>
       </c>
       <c r="I22">
-        <v>0.3336386304974184</v>
+        <v>0.3521725901145345</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.000474766996348</v>
+        <v>0.9310932837195907</v>
       </c>
       <c r="N22">
-        <v>2.570116430512456</v>
+        <v>1.498747884015131</v>
       </c>
       <c r="O22">
-        <v>3.644655198043893</v>
+        <v>1.48502762612577</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7572860259649588</v>
+        <v>0.2660344102659451</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02694974963522867</v>
+        <v>0.008925721714049928</v>
       </c>
       <c r="E23">
-        <v>0.1075731520428143</v>
+        <v>0.1017456133722199</v>
       </c>
       <c r="F23">
-        <v>1.221613845768644</v>
+        <v>0.4982603094591411</v>
       </c>
       <c r="G23">
-        <v>1.1362245228446</v>
+        <v>0.3834417987347365</v>
       </c>
       <c r="H23">
-        <v>0.5431379817186155</v>
+        <v>0.374383691544466</v>
       </c>
       <c r="I23">
-        <v>0.3287193032516527</v>
+        <v>0.3514199299106977</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.888745942218634</v>
+        <v>0.8982829013134221</v>
       </c>
       <c r="N23">
-        <v>2.502486286619416</v>
+        <v>1.477455448994789</v>
       </c>
       <c r="O23">
-        <v>3.501760756489148</v>
+        <v>1.451968684885117</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6502594497248424</v>
+        <v>0.2313608289441333</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0230711190723909</v>
+        <v>0.007770997543271818</v>
       </c>
       <c r="E24">
-        <v>0.09055282242852059</v>
+        <v>0.1031095373970317</v>
       </c>
       <c r="F24">
-        <v>1.037360267337078</v>
+        <v>0.4543668280221738</v>
       </c>
       <c r="G24">
-        <v>0.9606673442202265</v>
+        <v>0.3402075439158239</v>
       </c>
       <c r="H24">
-        <v>0.467974383642769</v>
+        <v>0.3592314894154072</v>
       </c>
       <c r="I24">
-        <v>0.3109519987688429</v>
+        <v>0.3489400575431318</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.468475118204921</v>
+        <v>0.7738373494950537</v>
       </c>
       <c r="N24">
-        <v>2.248349457455504</v>
+        <v>1.397422653730075</v>
       </c>
       <c r="O24">
-        <v>2.971690423336241</v>
+        <v>1.328152422018917</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5347888731485284</v>
+        <v>0.1938350087837364</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01890684168411738</v>
+        <v>0.006527055015524752</v>
       </c>
       <c r="E25">
-        <v>0.07579372810802809</v>
+        <v>0.1052787998005797</v>
       </c>
       <c r="F25">
-        <v>0.8449524291434045</v>
+        <v>0.4079796454635698</v>
       </c>
       <c r="G25">
-        <v>0.7773501605743576</v>
+        <v>0.2942089477174648</v>
       </c>
       <c r="H25">
-        <v>0.3901734227449225</v>
+        <v>0.3436701850168191</v>
       </c>
       <c r="I25">
-        <v>0.2935227292556242</v>
+        <v>0.3470642160299064</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.019796801362759</v>
+        <v>0.6392438986159306</v>
       </c>
       <c r="N25">
-        <v>1.978107947976156</v>
+        <v>1.312451925063584</v>
       </c>
       <c r="O25">
-        <v>2.41956451402757</v>
+        <v>1.197541566728916</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_113/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_113/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1661084259327765</v>
+        <v>0.4496522748065956</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005612785346094995</v>
+        <v>0.01585144296998564</v>
       </c>
       <c r="E2">
-        <v>0.1074619746187437</v>
+        <v>0.06742344963188174</v>
       </c>
       <c r="F2">
-        <v>0.3746353073733673</v>
+        <v>0.7075067562738298</v>
       </c>
       <c r="G2">
-        <v>0.2608699164456141</v>
+        <v>0.6463392041683704</v>
       </c>
       <c r="H2">
-        <v>0.3328812873599105</v>
+        <v>0.3351408781303746</v>
       </c>
       <c r="I2">
-        <v>0.3463768926081165</v>
+        <v>0.2820763287670793</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5398403867358468</v>
+        <v>1.692022278107984</v>
       </c>
       <c r="N2">
-        <v>1.251098144649433</v>
+        <v>1.782072550174746</v>
       </c>
       <c r="O2">
-        <v>1.103858612678096</v>
+        <v>2.026120034363686</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1472636846431499</v>
+        <v>0.3918404842877692</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004994341764724908</v>
+        <v>0.01378479968819235</v>
       </c>
       <c r="E3">
-        <v>0.1092998160422169</v>
+        <v>0.0630414979744458</v>
       </c>
       <c r="F3">
-        <v>0.3525363198711773</v>
+        <v>0.6164415938305154</v>
       </c>
       <c r="G3">
-        <v>0.2385975703545427</v>
+        <v>0.5594703200136024</v>
       </c>
       <c r="H3">
-        <v>0.3259847953969484</v>
+        <v>0.2989967285998603</v>
       </c>
       <c r="I3">
-        <v>0.3463474110070166</v>
+        <v>0.2751350877873016</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4722893597765676</v>
+        <v>1.470878930491381</v>
       </c>
       <c r="N3">
-        <v>1.210295828351775</v>
+        <v>1.650876346434586</v>
       </c>
       <c r="O3">
-        <v>1.04189678590032</v>
+        <v>1.76593471566818</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1356685332018657</v>
+        <v>0.3562759537734763</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004615247115150822</v>
+        <v>0.01251707433262794</v>
       </c>
       <c r="E4">
-        <v>0.1106025869431377</v>
+        <v>0.0609072686222305</v>
       </c>
       <c r="F4">
-        <v>0.3392116276521406</v>
+        <v>0.5613883896313538</v>
       </c>
       <c r="G4">
-        <v>0.2250785283969776</v>
+        <v>0.5069116790819237</v>
       </c>
       <c r="H4">
-        <v>0.3219546496304275</v>
+        <v>0.2772961388560162</v>
       </c>
       <c r="I4">
-        <v>0.346545782202007</v>
+        <v>0.2712606791591554</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4307244345333032</v>
+        <v>1.335403580608656</v>
       </c>
       <c r="N4">
-        <v>1.185635250531561</v>
+        <v>1.571088722422616</v>
       </c>
       <c r="O4">
-        <v>1.004599322642918</v>
+        <v>1.608850446561746</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1309377210038747</v>
+        <v>0.3417647276877886</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004460933676792678</v>
+        <v>0.01200066808705103</v>
       </c>
       <c r="E5">
-        <v>0.1111769599516208</v>
+        <v>0.06016627064964197</v>
       </c>
       <c r="F5">
-        <v>0.3338429597921007</v>
+        <v>0.5391474486669239</v>
       </c>
       <c r="G5">
-        <v>0.2196084561509934</v>
+        <v>0.4856665681689663</v>
       </c>
       <c r="H5">
-        <v>0.3203636907477687</v>
+        <v>0.2685662381245351</v>
       </c>
       <c r="I5">
-        <v>0.3466812631422691</v>
+        <v>0.2697772101182423</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4137649062256656</v>
+        <v>1.280249505230969</v>
       </c>
       <c r="N5">
-        <v>1.175686032843274</v>
+        <v>1.538761285335283</v>
       </c>
       <c r="O5">
-        <v>0.9895876508836636</v>
+        <v>1.545438226892657</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1301518424028387</v>
+        <v>0.3393540024973021</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004435320703166212</v>
+        <v>0.01191492862290389</v>
       </c>
       <c r="E6">
-        <v>0.1112749501050736</v>
+        <v>0.06005068869814778</v>
       </c>
       <c r="F6">
-        <v>0.3329551917873985</v>
+        <v>0.5354654115300974</v>
       </c>
       <c r="G6">
-        <v>0.2187025059342744</v>
+        <v>0.4821486333076734</v>
       </c>
       <c r="H6">
-        <v>0.3201026145344628</v>
+        <v>0.2671231911084249</v>
       </c>
       <c r="I6">
-        <v>0.3467070661298024</v>
+        <v>0.2695365836395531</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4109475133614922</v>
+        <v>1.271093755858871</v>
       </c>
       <c r="N6">
-        <v>1.174040068323421</v>
+        <v>1.533404439700689</v>
       </c>
       <c r="O6">
-        <v>0.9871062726617197</v>
+        <v>1.534942980060606</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1356047542801946</v>
+        <v>0.3560803264348635</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00461316528325284</v>
+        <v>0.01251010920690021</v>
       </c>
       <c r="E7">
-        <v>0.1106101575437499</v>
+        <v>0.06089676837078883</v>
       </c>
       <c r="F7">
-        <v>0.3391389761076908</v>
+        <v>0.5610876855775686</v>
       </c>
       <c r="G7">
-        <v>0.2250045993183534</v>
+        <v>0.50662448918537</v>
       </c>
       <c r="H7">
-        <v>0.3219329854854607</v>
+        <v>0.2771779591502082</v>
       </c>
       <c r="I7">
-        <v>0.346547387818525</v>
+        <v>0.2712402890278511</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4304957984247295</v>
+        <v>1.334659568559985</v>
       </c>
       <c r="N7">
-        <v>1.18550066427126</v>
+        <v>1.570651995416753</v>
       </c>
       <c r="O7">
-        <v>1.004396112196787</v>
+        <v>1.60799290462063</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1596160835493521</v>
+        <v>0.4297319987938124</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00539942163900875</v>
+        <v>0.01513855212130721</v>
       </c>
       <c r="E8">
-        <v>0.1080592679174188</v>
+        <v>0.06579015695971435</v>
       </c>
       <c r="F8">
-        <v>0.3669648016594351</v>
+        <v>0.6759145609823918</v>
       </c>
       <c r="G8">
-        <v>0.2531578219523141</v>
+        <v>0.6162108232393138</v>
       </c>
       <c r="H8">
-        <v>0.3304609523480053</v>
+        <v>0.3225697467801467</v>
       </c>
       <c r="I8">
-        <v>0.3463219221861387</v>
+        <v>0.2796012770483394</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5165675376332928</v>
+        <v>1.615693101603199</v>
       </c>
       <c r="N8">
-        <v>1.236949010496573</v>
+        <v>1.73667283220658</v>
       </c>
       <c r="O8">
-        <v>1.082338692579725</v>
+        <v>1.935809996316976</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2064914003842091</v>
+        <v>0.5736974524275809</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006945842567709803</v>
+        <v>0.02030753973285115</v>
       </c>
       <c r="E9">
-        <v>0.1044560952958236</v>
+        <v>0.08033971792272965</v>
       </c>
       <c r="F9">
-        <v>0.4234784477749542</v>
+        <v>0.9090315142465926</v>
       </c>
       <c r="G9">
-        <v>0.3096202400279822</v>
+        <v>0.8384067010868677</v>
       </c>
       <c r="H9">
-        <v>0.3488078672512955</v>
+        <v>0.4159952888668386</v>
       </c>
       <c r="I9">
-        <v>0.3475887679484373</v>
+        <v>0.2991715928296799</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6846295097790005</v>
+        <v>2.170444719379162</v>
       </c>
       <c r="N9">
-        <v>1.340889488402212</v>
+        <v>2.068657073110444</v>
       </c>
       <c r="O9">
-        <v>1.241148948972636</v>
+        <v>2.603275915527036</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2407823869148444</v>
+        <v>0.6793062796287757</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.008084302042611569</v>
+        <v>0.02412204125587536</v>
       </c>
       <c r="E10">
-        <v>0.1026837273292429</v>
+        <v>0.09485882607290819</v>
       </c>
       <c r="F10">
-        <v>0.4662044215769754</v>
+        <v>1.086810337382303</v>
       </c>
       <c r="G10">
-        <v>0.3518914261744612</v>
+        <v>1.007779252539166</v>
       </c>
       <c r="H10">
-        <v>0.3632823492797286</v>
+        <v>0.4880893553662702</v>
       </c>
       <c r="I10">
-        <v>0.3495505719500969</v>
+        <v>0.3156326514925922</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8076433401380854</v>
+        <v>2.582108517258447</v>
       </c>
       <c r="N10">
-        <v>1.419040578161599</v>
+        <v>2.317002378987723</v>
       </c>
       <c r="O10">
-        <v>1.361525135193943</v>
+        <v>3.113826520025412</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2563460674260511</v>
+        <v>0.7273450566401607</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.008602620141545003</v>
+        <v>0.02586294463637273</v>
       </c>
       <c r="E11">
-        <v>0.1020721353747511</v>
+        <v>0.1024933567353408</v>
       </c>
       <c r="F11">
-        <v>0.4859075045388863</v>
+        <v>1.169503186659298</v>
       </c>
       <c r="G11">
-        <v>0.3712981816973979</v>
+        <v>1.086568075041072</v>
       </c>
       <c r="H11">
-        <v>0.3700844682704343</v>
+        <v>0.5218225030961179</v>
       </c>
       <c r="I11">
-        <v>0.3506647198888473</v>
+        <v>0.3236081807426388</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8635019757502107</v>
+        <v>2.770735380135221</v>
       </c>
       <c r="N11">
-        <v>1.454966479155587</v>
+        <v>2.431073339599379</v>
       </c>
       <c r="O11">
-        <v>1.417104467211857</v>
+        <v>3.351718854249953</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2622341251766898</v>
+        <v>0.7455380940921827</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.008798944433408451</v>
+        <v>0.02652316111299768</v>
       </c>
       <c r="E12">
-        <v>0.1018689220452096</v>
+        <v>0.1055506528729246</v>
       </c>
       <c r="F12">
-        <v>0.4934071510788414</v>
+        <v>1.201115054359477</v>
       </c>
       <c r="G12">
-        <v>0.3786728547891585</v>
+        <v>1.116690480597981</v>
       </c>
       <c r="H12">
-        <v>0.3726916047249631</v>
+        <v>0.5347479686619465</v>
       </c>
       <c r="I12">
-        <v>0.3511183062409131</v>
+        <v>0.3267014104973995</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8846391120588493</v>
+        <v>2.84240093502406</v>
       </c>
       <c r="N12">
-        <v>1.468623137977346</v>
+        <v>2.474437975355073</v>
       </c>
       <c r="O12">
-        <v>1.438269610491318</v>
+        <v>3.442726970528156</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2609662818065601</v>
+        <v>0.7416197801570661</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.008756660535020444</v>
+        <v>0.02638092567347172</v>
       </c>
       <c r="E13">
-        <v>0.1019114190903103</v>
+        <v>0.1048845071353455</v>
       </c>
       <c r="F13">
-        <v>0.4917902526312048</v>
+        <v>1.194293016817568</v>
       </c>
       <c r="G13">
-        <v>0.3770834375360437</v>
+        <v>1.110189711263729</v>
       </c>
       <c r="H13">
-        <v>0.3721287177191073</v>
+        <v>0.5319572211861896</v>
       </c>
       <c r="I13">
-        <v>0.3510192123658271</v>
+        <v>0.3260319287157785</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8800875454198405</v>
+        <v>2.826955249335512</v>
       </c>
       <c r="N13">
-        <v>1.465679630869687</v>
+        <v>2.465090955174389</v>
       </c>
       <c r="O13">
-        <v>1.433706040295874</v>
+        <v>3.423083779895819</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2568305958083954</v>
+        <v>0.7288417592012308</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.008618770961767552</v>
+        <v>0.02591724055875488</v>
       </c>
       <c r="E14">
-        <v>0.10205484580883</v>
+        <v>0.1027414399657793</v>
       </c>
       <c r="F14">
-        <v>0.486523732200169</v>
+        <v>1.172097726303164</v>
       </c>
       <c r="G14">
-        <v>0.3719043828823203</v>
+        <v>1.089040295390333</v>
       </c>
       <c r="H14">
-        <v>0.3702983310493551</v>
+        <v>0.5228827528206921</v>
       </c>
       <c r="I14">
-        <v>0.350701402878812</v>
+        <v>0.3238611803936209</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8652412521942097</v>
+        <v>2.776626354647291</v>
       </c>
       <c r="N14">
-        <v>1.456088981442775</v>
+        <v>2.434637534518203</v>
       </c>
       <c r="O14">
-        <v>1.418843358821618</v>
+        <v>3.359186961080809</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2542966293602547</v>
+        <v>0.7210151563982379</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.008534315545453808</v>
+        <v>0.02563335185926263</v>
       </c>
       <c r="E15">
-        <v>0.1021464067595801</v>
+        <v>0.1014509704108555</v>
       </c>
       <c r="F15">
-        <v>0.4833028567377369</v>
+        <v>1.158542386684886</v>
       </c>
       <c r="G15">
-        <v>0.3687354239147567</v>
+        <v>1.076124153270683</v>
       </c>
       <c r="H15">
-        <v>0.3691812462652564</v>
+        <v>0.5173446226065721</v>
       </c>
       <c r="I15">
-        <v>0.3505108555245258</v>
+        <v>0.3225411421649014</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8561454506516952</v>
+        <v>2.745830566888642</v>
       </c>
       <c r="N15">
-        <v>1.450221196524694</v>
+        <v>2.41600620110944</v>
       </c>
       <c r="O15">
-        <v>1.409754981530398</v>
+        <v>3.320172075717721</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2397645099099179</v>
+        <v>0.6761669566221258</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.008050436224955604</v>
+        <v>0.02400839646779218</v>
       </c>
       <c r="E16">
-        <v>0.1027276468475939</v>
+        <v>0.09438213000893114</v>
       </c>
       <c r="F16">
-        <v>0.4649221605921383</v>
+        <v>1.081445814366205</v>
       </c>
       <c r="G16">
-        <v>0.3506267397123963</v>
+        <v>1.002668290562909</v>
       </c>
       <c r="H16">
-        <v>0.3628421961578994</v>
+        <v>0.4859050677996208</v>
       </c>
       <c r="I16">
-        <v>0.3494822041198944</v>
+        <v>0.315121489862527</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8039907468769769</v>
+        <v>2.569812087155896</v>
       </c>
       <c r="N16">
-        <v>1.416700139513921</v>
+        <v>2.30957054547045</v>
       </c>
       <c r="O16">
-        <v>1.357909438847571</v>
+        <v>3.098402584011268</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2308401070648642</v>
+        <v>0.6486547634149815</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.007753692137388413</v>
+        <v>0.02301309957428188</v>
       </c>
       <c r="E17">
-        <v>0.1031343551526405</v>
+        <v>0.09032179575324051</v>
       </c>
       <c r="F17">
-        <v>0.4537146441983424</v>
+        <v>1.034640563815756</v>
       </c>
       <c r="G17">
-        <v>0.3395632573981402</v>
+        <v>0.9580762788162929</v>
       </c>
       <c r="H17">
-        <v>0.3590091495388776</v>
+        <v>0.4668693892064653</v>
       </c>
       <c r="I17">
-        <v>0.3489078035303805</v>
+        <v>0.3106966614011881</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7719690954080534</v>
+        <v>2.462206596224036</v>
       </c>
       <c r="N17">
-        <v>1.3962308782489</v>
+        <v>2.244564088206886</v>
       </c>
       <c r="O17">
-        <v>1.326314224011327</v>
+        <v>2.963875798492353</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2257037168302531</v>
+        <v>0.6328300292478275</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.007583053770687798</v>
+        <v>0.022441154272407</v>
       </c>
       <c r="E18">
-        <v>0.1033865825994837</v>
+        <v>0.08808213838700496</v>
       </c>
       <c r="F18">
-        <v>0.4472934830934321</v>
+        <v>1.007888429884062</v>
       </c>
       <c r="G18">
-        <v>0.333216516122846</v>
+        <v>0.9325895848679551</v>
       </c>
       <c r="H18">
-        <v>0.3568249626434294</v>
+        <v>0.45600770370433</v>
       </c>
       <c r="I18">
-        <v>0.3485983040424045</v>
+        <v>0.3081972955194878</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7535416317556383</v>
+        <v>2.400439974007085</v>
       </c>
       <c r="N18">
-        <v>1.384492850305435</v>
+        <v>2.20727670147528</v>
       </c>
       <c r="O18">
-        <v>1.3082186011749</v>
+        <v>2.887023170105635</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2239640692837384</v>
+        <v>0.627471903474401</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.007525285984804952</v>
+        <v>0.0222475886409832</v>
       </c>
       <c r="E19">
-        <v>0.1034751135740812</v>
+        <v>0.08733974431936531</v>
       </c>
       <c r="F19">
-        <v>0.4451236957152673</v>
+        <v>0.9988585925404863</v>
       </c>
       <c r="G19">
-        <v>0.3310704759802121</v>
+        <v>0.9239868948665162</v>
       </c>
       <c r="H19">
-        <v>0.3560889510529393</v>
+        <v>0.4523446033056189</v>
       </c>
       <c r="I19">
-        <v>0.3484971051891819</v>
+        <v>0.3073588100874431</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7473008093512874</v>
+        <v>2.379547170482567</v>
       </c>
       <c r="N19">
-        <v>1.380524674956973</v>
+        <v>2.194669146284781</v>
       </c>
       <c r="O19">
-        <v>1.30210495948748</v>
+        <v>2.861088852503713</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2317904709482264</v>
+        <v>0.651583513998844</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.007785276904343164</v>
+        <v>0.02311899537424367</v>
       </c>
       <c r="E20">
-        <v>0.1030891635963407</v>
+        <v>0.09074399001534772</v>
       </c>
       <c r="F20">
-        <v>0.4549051040104644</v>
+        <v>1.039605318903639</v>
       </c>
       <c r="G20">
-        <v>0.3407392557370343</v>
+        <v>0.9628062102325998</v>
       </c>
       <c r="H20">
-        <v>0.3594150640562361</v>
+        <v>0.468886635352888</v>
       </c>
       <c r="I20">
-        <v>0.3489667898463011</v>
+        <v>0.3111629432678598</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7753788393913794</v>
+        <v>2.473648139745166</v>
       </c>
       <c r="N20">
-        <v>1.398406218859037</v>
+        <v>2.251473442771157</v>
       </c>
       <c r="O20">
-        <v>1.32966960372076</v>
+        <v>2.97814142795815</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2580455019559906</v>
+        <v>0.7325949060525261</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.008659271259254808</v>
+        <v>0.0260534083413333</v>
       </c>
       <c r="E21">
-        <v>0.1020119444744836</v>
+        <v>0.1033662450615367</v>
       </c>
       <c r="F21">
-        <v>0.4880695904105181</v>
+        <v>1.178608633730434</v>
       </c>
       <c r="G21">
-        <v>0.3734248957898103</v>
+        <v>1.095244301431705</v>
       </c>
       <c r="H21">
-        <v>0.3708351096815505</v>
+        <v>0.5255438935451195</v>
       </c>
       <c r="I21">
-        <v>0.3507938929506693</v>
+        <v>0.3244967739414619</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.869602390414471</v>
+        <v>2.791402399119249</v>
       </c>
       <c r="N21">
-        <v>1.458904580659038</v>
+        <v>2.443577781930628</v>
       </c>
       <c r="O21">
-        <v>1.423205669011054</v>
+        <v>3.377928999541837</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2751719974716309</v>
+        <v>0.7855521819983835</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.009230753626781052</v>
+        <v>0.02797697900416551</v>
       </c>
       <c r="E22">
-        <v>0.1014735408759151</v>
+        <v>0.1125944186630896</v>
       </c>
       <c r="F22">
-        <v>0.5099690716487117</v>
+        <v>1.271210631247584</v>
       </c>
       <c r="G22">
-        <v>0.394937091137507</v>
+        <v>1.183491148202933</v>
       </c>
       <c r="H22">
-        <v>0.3784813502030033</v>
+        <v>0.5634642915745474</v>
       </c>
       <c r="I22">
-        <v>0.3521725901145345</v>
+        <v>0.3336386304974113</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9310932837195907</v>
+        <v>3.000474766996362</v>
       </c>
       <c r="N22">
-        <v>1.498747884015131</v>
+        <v>2.570116430512428</v>
       </c>
       <c r="O22">
-        <v>1.48502762612577</v>
+        <v>3.644655198043836</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2660344102659451</v>
+        <v>0.7572860259649588</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.008925721714049928</v>
+        <v>0.02694974963515051</v>
       </c>
       <c r="E23">
-        <v>0.1017456133722199</v>
+        <v>0.1075731520427965</v>
       </c>
       <c r="F23">
-        <v>0.4982603094591411</v>
+        <v>1.221613845768644</v>
       </c>
       <c r="G23">
-        <v>0.3834417987347365</v>
+        <v>1.1362245228446</v>
       </c>
       <c r="H23">
-        <v>0.374383691544466</v>
+        <v>0.5431379817186155</v>
       </c>
       <c r="I23">
-        <v>0.3514199299106977</v>
+        <v>0.3287193032516811</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8982829013134221</v>
+        <v>2.888745942218605</v>
       </c>
       <c r="N23">
-        <v>1.477455448994789</v>
+        <v>2.502486286619416</v>
       </c>
       <c r="O23">
-        <v>1.451968684885117</v>
+        <v>3.501760756489091</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2313608289441333</v>
+        <v>0.6502594497245866</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.007770997543271818</v>
+        <v>0.02307111907215287</v>
       </c>
       <c r="E24">
-        <v>0.1031095373970317</v>
+        <v>0.09055282242853124</v>
       </c>
       <c r="F24">
-        <v>0.4543668280221738</v>
+        <v>1.037360267337078</v>
       </c>
       <c r="G24">
-        <v>0.3402075439158239</v>
+        <v>0.9606673442202407</v>
       </c>
       <c r="H24">
-        <v>0.3592314894154072</v>
+        <v>0.4679743836427548</v>
       </c>
       <c r="I24">
-        <v>0.3489400575431318</v>
+        <v>0.3109519987688429</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7738373494950537</v>
+        <v>2.468475118204921</v>
       </c>
       <c r="N24">
-        <v>1.397422653730075</v>
+        <v>2.248349457455618</v>
       </c>
       <c r="O24">
-        <v>1.328152422018917</v>
+        <v>2.97169042333627</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1938350087837364</v>
+        <v>0.5347888731485284</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.006527055015524752</v>
+        <v>0.01890684168417778</v>
       </c>
       <c r="E25">
-        <v>0.1052787998005797</v>
+        <v>0.07579372810802454</v>
       </c>
       <c r="F25">
-        <v>0.4079796454635698</v>
+        <v>0.8449524291434045</v>
       </c>
       <c r="G25">
-        <v>0.2942089477174648</v>
+        <v>0.7773501605743292</v>
       </c>
       <c r="H25">
-        <v>0.3436701850168191</v>
+        <v>0.3901734227449225</v>
       </c>
       <c r="I25">
-        <v>0.3470642160299064</v>
+        <v>0.2935227292555957</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6392438986159306</v>
+        <v>2.019796801362745</v>
       </c>
       <c r="N25">
-        <v>1.312451925063584</v>
+        <v>1.978107947976184</v>
       </c>
       <c r="O25">
-        <v>1.197541566728916</v>
+        <v>2.41956451402757</v>
       </c>
     </row>
   </sheetData>
